--- a/Supplementary Materials/Benchmark.xlsx
+++ b/Supplementary Materials/Benchmark.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Paper submissions\JBCB_Jan13_2019\!response to reveiwers_add-ons\Supplementary materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Paper submissions\JBCB_Jan13_2019\!GitHub_v3.0\Self-targetCRISPR-master_v2.1\Supplementary Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30553FA5-D7AF-47C1-9FAC-C07A5A64FDF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977C99AB-82F3-45C3-B7F0-576DD208D4B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{1FEA52CB-A1CE-4FF3-83FE-E2DB9A6FEBFF}"/>
   </bookViews>
@@ -815,15 +815,9 @@
     <t>4.31% </t>
   </si>
   <si>
-    <t>5.  No self-targeting events within the analyzed genome</t>
-  </si>
-  <si>
     <t>Self-targeting spacers and their targets are on different replicons</t>
   </si>
   <si>
-    <t>4.  Mismatched position(s) of the found self-targeting events</t>
-  </si>
-  <si>
     <t>No information in the current version of CRISPRdb</t>
   </si>
   <si>
@@ -834,6 +828,12 @@
   </si>
   <si>
     <t>Ten resolved cases</t>
+  </si>
+  <si>
+    <t>4.  Mismatched position(s) of self-targeting events</t>
+  </si>
+  <si>
+    <t>5.  No self-targeting events found within the genome</t>
   </si>
 </sst>
 </file>
@@ -1473,9 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E285331-2181-4331-B36C-9CC1F8C654A9}">
   <dimension ref="C2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1544,7 +1542,7 @@
     </row>
     <row r="8" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D8" s="18">
         <v>5</v>
@@ -1555,7 +1553,7 @@
     </row>
     <row r="9" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -5888,7 +5886,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5926,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M2" s="1">
         <v>6</v>
@@ -5967,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M3" s="1">
         <v>6</v>
@@ -6008,7 +6006,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M4" s="1">
         <v>5</v>
@@ -6049,7 +6047,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M5" s="1">
         <v>5</v>
@@ -6090,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M6" s="1">
         <v>5</v>
@@ -6131,7 +6129,7 @@
         <v>3</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M7" s="1">
         <v>5</v>
@@ -6172,7 +6170,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M8" s="1">
         <v>5</v>
@@ -6213,7 +6211,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M9" s="1">
         <v>5</v>
@@ -6254,7 +6252,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M10" s="1">
         <v>5</v>
@@ -6295,7 +6293,7 @@
         <v>5</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M11" s="1">
         <v>5</v>
@@ -6400,7 +6398,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
